--- a/report_ca_nhan/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/report_ca_nhan/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/report_ca_nhan/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -689,4 +690,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/report_ca_nhan/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,82 +474,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -584,59 +609,76 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>17730000</v>
-      </c>
-      <c r="J2" t="n">
-        <v/>
       </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
         <v>17730000</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>14730000</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>14730000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v/>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v/>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>100000</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>50000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3682500</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -654,37 +696,50 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>17730000</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>17730000</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>14730000</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>14730000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
         <v>100000</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>50000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3682500</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -698,14 +753,255 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ngày công</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phụ cấp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1473000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_ca_nhan/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/report_ca_nhan/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn 2 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Lương" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +611,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mũi</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -638,13 +640,13 @@
         <v>14730000</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="P2" t="n">
-        <v>14730000</v>
+        <v>17730000</v>
       </c>
       <c r="Q2" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -669,13 +671,13 @@
         <v>50000</v>
       </c>
       <c r="X2" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>3682500</v>
+        <v>1773000</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -684,45 +686,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>548</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Nhiên</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
       <c r="J3" t="n">
-        <v>17730000</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M3" t="n">
-        <v>17730000</v>
+        <v>20000000</v>
       </c>
       <c r="N3" t="n">
-        <v>14730000</v>
+        <v>20000000</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14730000</v>
+        <v>20000000</v>
       </c>
       <c r="Q3" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
       <c r="V3" t="n">
         <v>100000</v>
       </c>
@@ -730,15 +774,387 @@
         <v>50000</v>
       </c>
       <c r="X3" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>3682500</v>
+        <v>2000000</v>
       </c>
       <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>551</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Kim anh</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Thu cánh mũi</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>553</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>557</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc My</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>106730000</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>106730000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>95730000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>103730000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>500000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>200000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12873000</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -753,7 +1169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +1180,1097 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>565</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sữ Thị Thanh Tuyền</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id đơn nợ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id sale chính</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id sale phụ</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>04-29-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>24a4f213-618b-4ea3-b604-5b10881d56f7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>139</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>803377a1-0326-4663-9ed5-acaf19520399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-356</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>06-19-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fc4e35ab-9e43-4ae3-be2f-317aa19b638b</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>140</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9b808ccf-2311-41f2-b949-9c137995a37f</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-442</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06-19-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5ac076b8-df5c-4bfb-9e9b-29c50e554cb0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>141</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9b808ccf-2311-41f2-b949-9c137995a37f</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-442</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>200000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04-25-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>05531b63-f428-4450-86ab-4cb31890c9b7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>146</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2f04163e-5cde-4c1f-86f8-62cc6a7fb1ee</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-198</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>04-16-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>393f2f76-00f6-413d-8833-3d400436176b</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>155</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>02c49e05-3b89-4b64-a5cb-fcfb2bbdc46c</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-192</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>14600000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v>420000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>546000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>12200000</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>52000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>87600000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>1220000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1146000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục</t>
         </is>
       </c>
@@ -778,7 +2285,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +2295,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>385000</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="4">
@@ -798,7 +2305,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v/>
+        <v>1655357.142857143</v>
       </c>
     </row>
     <row r="5">
@@ -828,7 +2335,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1473000</v>
+        <v>8119000</v>
       </c>
     </row>
     <row r="8">
@@ -838,7 +2345,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="9">
@@ -864,27 +2371,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1655357.142857143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -894,7 +2401,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -904,17 +2411,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -924,7 +2431,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -934,17 +2441,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -954,17 +2461,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1655357.142857143</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -974,7 +2481,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -984,21 +2491,91 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>15316857.14285714</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2055357.142857143</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4655357.142857143</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>22027571.42857143</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/report_ca_nhan/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,107 +476,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
     </row>
@@ -614,73 +549,26 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H2" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>17730000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>17730000</v>
       </c>
       <c r="M2" t="n">
-        <v>17730000</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>14730000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>17730000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>1773000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -717,73 +605,26 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
       <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>20000000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
       <c r="L3" t="n">
-        <v/>
+        <v>20000000</v>
       </c>
       <c r="M3" t="n">
-        <v>20000000</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>2000000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,76 +658,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Thu cánh mũi</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
+      <c r="H4" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
       <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
         <v>4000000</v>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
       <c r="L4" t="n">
-        <v/>
+        <v>4000000</v>
       </c>
       <c r="M4" t="n">
-        <v>4000000</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>400000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -923,75 +717,26 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="H5" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
       <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
         <v>30000000</v>
       </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
       <c r="L5" t="n">
-        <v/>
+        <v>30000000</v>
       </c>
       <c r="M5" t="n">
-        <v>30000000</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="6">
@@ -1028,134 +773,118 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="H6" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
       <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
         <v>35000000</v>
       </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
       <c r="L6" t="n">
-        <v/>
+        <v>32000000</v>
       </c>
       <c r="M6" t="n">
-        <v>35000000</v>
+        <v>0.1</v>
       </c>
       <c r="N6" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W6" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>4800000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>568</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>106730000</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>106730000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>95730000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>103730000</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>123730000</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>3000000</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>500000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>200000</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12873000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
+      <c r="K8" t="n">
+        <v>126730000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>123730000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12373000</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,107 +939,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
+          <t>Chiết khấu bác sĩ 2</t>
         </is>
       </c>
     </row>
@@ -1348,75 +1012,26 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>18000000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>18000000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000000</v>
+        <v>0.06</v>
       </c>
       <c r="N2" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="3">
@@ -1433,51 +1048,24 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>18000000</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>18000000</v>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000000</v>
+        <v>0.06</v>
       </c>
       <c r="N3" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
+        <v>1080000</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,97 +1090,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Ngày thu</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>notion id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id đơn nợ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Đã thanh toán</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
+          <t>Chiết khấu sale chính</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -1602,119 +1190,102 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>id sale chính</t>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>id sale phụ</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>id bác sĩ 1</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>id bác sĩ 2</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-29-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>139</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>07-05-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>24a4f213-618b-4ea3-b604-5b10881d56f7</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>139</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>HD-LUXURY-356</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>803377a1-0326-4663-9ed5-acaf19520399</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>thuý vân</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-356</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>35000000</v>
+      </c>
       <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
         <v>35000000</v>
       </c>
-      <c r="M2" t="n">
-        <v/>
-      </c>
-      <c r="N2" t="n">
-        <v/>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
       <c r="Q2" t="n">
-        <v>15000000</v>
+        <v/>
       </c>
       <c r="R2" t="n">
-        <v>24000000</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1722,530 +1293,458 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
-        </is>
+      <c r="U2" t="n">
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>200000</v>
       </c>
       <c r="X2" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06-19-2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>140</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>07-07-2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>fc4e35ab-9e43-4ae3-be2f-317aa19b638b</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>140</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-442</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9b808ccf-2311-41f2-b949-9c137995a37f</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Trần Thị Lan Trinh</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HD-LUXURY-442</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>15000000</v>
+      </c>
       <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
         <v>15000000</v>
       </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
       <c r="Q3" t="n">
-        <v>10000000</v>
+        <v/>
       </c>
       <c r="R3" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.1</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
-        </is>
+      <c r="W3" t="n">
+        <v>300000</v>
       </c>
       <c r="X3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>300000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06-19-2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>141</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>07-07-2024</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5ac076b8-df5c-4bfb-9e9b-29c50e554cb0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>141</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-442</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9b808ccf-2311-41f2-b949-9c137995a37f</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Trần Thị Lan Trinh</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HD-LUXURY-442</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>15000000</v>
+      </c>
       <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
         <v>15000000</v>
       </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
       <c r="Q4" t="n">
-        <v>10000000</v>
+        <v/>
       </c>
       <c r="R4" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.1</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
-        </is>
+      <c r="W4" t="n">
+        <v>200000</v>
       </c>
       <c r="X4" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>200000</v>
-      </c>
-      <c r="AB4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-25-2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>146</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>07-07-2024</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>05531b63-f428-4450-86ab-4cb31890c9b7</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>146</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-198</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2f04163e-5cde-4c1f-86f8-62cc6a7fb1ee</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>trần kiều trinh</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HD-LUXURY-198</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K5" t="n">
+        <v>19000000</v>
+      </c>
       <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
         <v>19000000</v>
       </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
       <c r="Q5" t="n">
-        <v>15000000</v>
+        <v/>
       </c>
       <c r="R5" t="n">
-        <v>19000000</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>0.1</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
-        </is>
+      <c r="W5" t="n">
+        <v>100000</v>
       </c>
       <c r="X5" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="AB5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-16-2024</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>155</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>07-16-2024</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>393f2f76-00f6-413d-8833-3d400436176b</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>155</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-192</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>02c49e05-3b89-4b64-a5cb-fcfb2bbdc46c</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4200000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Tiến</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HD-LUXURY-192</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K6" t="n">
+        <v>25000000</v>
+      </c>
       <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
         <v>25000000</v>
       </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" t="n">
+        <v>14600000</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
       <c r="Q6" t="n">
-        <v>2000000</v>
+        <v/>
       </c>
       <c r="R6" t="n">
-        <v>14600000</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+      <c r="U6" t="n">
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>420000</v>
       </c>
       <c r="X6" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>420000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>546000</v>
-      </c>
-      <c r="AB6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="B7" t="n">
         <v>5</v>
       </c>
+      <c r="C7" t="n">
+        <v>12200000</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>12200000</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
+      <c r="K7" t="n">
         <v>109000000</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
       <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>109000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>87600000</v>
+      </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>52000000</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>87600000</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1220000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y7" t="n">
-        <v>1220000</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1146000</v>
-      </c>
-      <c r="AB7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2260,7 +1759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2271,7 +1770,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -2285,7 +1784,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -2295,7 +1794,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="4">
@@ -2305,7 +1804,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1655357.142857143</v>
+        <v>1765714.285714286</v>
       </c>
     </row>
     <row r="5">
@@ -2335,7 +1834,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8119000</v>
+        <v>6973000</v>
       </c>
     </row>
     <row r="8">
@@ -2371,37 +1870,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1655357.142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1765714.285714286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2411,27 +1910,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2441,7 +1940,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2451,7 +1950,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2461,17 +1960,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1655357.142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2481,27 +1980,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1765714.285714286</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2511,17 +2010,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2531,7 +2030,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2541,41 +2040,71 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15316857.14285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2055357.142857143</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4655357.142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11398714.28571429</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2165714.285714285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6965714.285714285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>22027571.42857143</v>
+      <c r="B34" t="n">
+        <v>20530142.85714286</v>
       </c>
     </row>
   </sheetData>
